--- a/Administration/Documentation/flynet_requirements_chart_10_19_15.xlsx
+++ b/Administration/Documentation/flynet_requirements_chart_10_19_15.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="200">
   <si>
     <t>Level 1 Requirement</t>
   </si>
@@ -483,54 +483,6 @@
     <t>Report tag ID number, confirm all tags are uniquely identified</t>
   </si>
   <si>
-    <t>The system shall operate in various indoor lighting conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system shall operate in environments with 60 Hz fluroescent lighting </t>
-  </si>
-  <si>
-    <t>The system visual sensor performance shall not be affected by 60 Hz light flickering</t>
-  </si>
-  <si>
-    <t>9.1.1</t>
-  </si>
-  <si>
-    <t>Operation of system in florescent lighting</t>
-  </si>
-  <si>
-    <t>The system shall operate in environments with little to no existing light</t>
-  </si>
-  <si>
-    <t>9.2.1</t>
-  </si>
-  <si>
-    <t>Run verification of localization in no lighting (drapes over windows, lights off)</t>
-  </si>
-  <si>
-    <t>Range finder on xtion, sonic and laser rangefinders</t>
-  </si>
-  <si>
-    <t>The system shall maintain obstacle avoidance in no light conditions</t>
-  </si>
-  <si>
-    <t>9.2.2</t>
-  </si>
-  <si>
-    <t>Run verification of obstacle avoidance in no lighting (drapes over windows, lights off)</t>
-  </si>
-  <si>
-    <t>The system shall be compatible with VICON</t>
-  </si>
-  <si>
-    <t>The system shall not interfere with VICON or suffer fault due to vicon operation (for testing purposes)</t>
-  </si>
-  <si>
-    <t>9.3.1</t>
-  </si>
-  <si>
-    <t>Static test</t>
-  </si>
-  <si>
     <t>Keywords/Acronyms</t>
   </si>
   <si>
@@ -649,9 +601,6 @@
   </si>
   <si>
     <t>The system shall detect target tags within 5 meters</t>
-  </si>
-  <si>
-    <t>The system shall navigate without collision in no lighting conditions</t>
   </si>
   <si>
     <t>The system shall identify human targets within 5 meters</t>
@@ -831,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -873,13 +822,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -887,9 +829,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1228,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1264,10 +1203,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1284,8 +1223,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="32">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
@@ -1300,13 +1239,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="32">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>17</v>
@@ -1316,10 +1255,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="48">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="9" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>19</v>
@@ -1332,9 +1271,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="32">
-      <c r="A6" s="19"/>
-      <c r="B6" s="18" t="s">
-        <v>200</v>
+      <c r="A6" s="16"/>
+      <c r="B6" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>22</v>
@@ -1350,8 +1289,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="48">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
@@ -1366,10 +1305,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="96">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>30</v>
@@ -1382,13 +1321,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="48">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="9" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>33</v>
@@ -1398,12 +1337,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="32">
-      <c r="A10" s="19"/>
-      <c r="B10" s="18" t="s">
-        <v>197</v>
+      <c r="A10" s="16"/>
+      <c r="B10" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>35</v>
@@ -1416,10 +1355,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="32">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="9" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>38</v>
@@ -1432,10 +1371,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="48">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1452,8 +1391,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="48">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
@@ -1468,8 +1407,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="32">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="9" t="s">
         <v>51</v>
       </c>
@@ -1484,7 +1423,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="32">
-      <c r="A15" s="20"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="12" t="s">
         <v>55</v>
       </c>
@@ -1502,10 +1441,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="16">
-      <c r="A16" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -1522,10 +1461,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="32">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="9" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>65</v>
@@ -1538,8 +1477,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="32">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="9" t="s">
         <v>68</v>
       </c>
@@ -1554,11 +1493,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="32">
-      <c r="A19" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>203</v>
+      <c r="A19" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>72</v>
@@ -1574,8 +1513,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="32">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="9" t="s">
         <v>76</v>
       </c>
@@ -1590,9 +1529,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="32">
-      <c r="A21" s="19"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="12" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>80</v>
@@ -1608,7 +1547,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="32">
-      <c r="A22" s="19"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="12" t="s">
         <v>84</v>
       </c>
@@ -1626,7 +1565,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="32">
-      <c r="A23" s="20"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="12" t="s">
         <v>89</v>
       </c>
@@ -1644,8 +1583,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="32">
-      <c r="A24" s="18" t="s">
-        <v>216</v>
+      <c r="A24" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>93</v>
@@ -1664,12 +1603,12 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="48">
-      <c r="A25" s="19"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="12" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>98</v>
@@ -1682,8 +1621,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="32">
-      <c r="A26" s="19"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -1700,8 +1639,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="32">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="9" t="s">
         <v>104</v>
       </c>
@@ -1716,11 +1655,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="32">
-      <c r="A28" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>204</v>
+      <c r="A28" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>188</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>107</v>
@@ -1736,8 +1675,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="32">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="9" t="s">
         <v>111</v>
       </c>
@@ -1752,8 +1691,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="16">
-      <c r="A30" s="19"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -1770,8 +1709,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="48">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="9" t="s">
         <v>119</v>
       </c>
@@ -1786,8 +1725,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="16">
-      <c r="A32" s="19"/>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -1804,8 +1743,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="32">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="9" t="s">
         <v>127</v>
       </c>
@@ -1820,7 +1759,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="32">
-      <c r="A34" s="20"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="12" t="s">
         <v>131</v>
       </c>
@@ -1838,7 +1777,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="16">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="15" t="s">
         <v>135</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -1858,7 +1797,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="32">
-      <c r="A36" s="19"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="12" t="s">
         <v>140</v>
       </c>
@@ -1876,12 +1815,12 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="32">
-      <c r="A37" s="19"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="15" t="s">
         <v>144</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>145</v>
@@ -1894,10 +1833,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="32">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="9" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>148</v>
@@ -1910,7 +1849,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="32">
-      <c r="A39" s="20"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="12" t="s">
         <v>150</v>
       </c>
@@ -1927,192 +1866,122 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="32">
-      <c r="A40" s="21" t="s">
+    <row r="42" spans="1:6" ht="18">
+      <c r="A42" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B42" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="9" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="18">
+      <c r="A43" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="B43" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="11" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="18">
+      <c r="A44" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="32">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21" t="s">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="18">
+      <c r="A45" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="B45" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="11" t="s">
+    </row>
+    <row r="46" spans="1:6" ht="18">
+      <c r="A46" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="B46" s="4" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="32">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="48">
-      <c r="A43" s="21"/>
-      <c r="B43" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="46" spans="1:6" ht="18">
-      <c r="A46" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18">
       <c r="A47" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="36">
       <c r="A48" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" ht="18">
+        <v>165</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="72">
       <c r="A49" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18">
       <c r="A50" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18">
       <c r="A51" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="36">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18">
       <c r="A52" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="72">
-      <c r="A53" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B53" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18">
-      <c r="A54" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18">
-      <c r="A55" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="18">
-      <c r="A56" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>215</v>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="18">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
@@ -2127,8 +1996,6 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A40:A43"/>
     <mergeCell ref="A28:A34"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>

--- a/Administration/Documentation/flynet_requirements_chart_10_19_15.xlsx
+++ b/Administration/Documentation/flynet_requirements_chart_10_19_15.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Tune parameters of OpenCV tracking software to identify targets with correct POD</t>
   </si>
   <si>
-    <t>1.1.5</t>
-  </si>
-  <si>
     <t>Run experiments on identification percentage at various distances to target in order to characterize visual identification range</t>
   </si>
   <si>
@@ -619,6 +616,9 @@
   </si>
   <si>
     <t>The aerial vehicle shall be capable of delivering a 0.5 lb payload</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
   </si>
 </sst>
 </file>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1245,7 +1245,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>17</v>
@@ -1258,698 +1258,698 @@
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32">
       <c r="A6" s="16"/>
       <c r="B6" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="48">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="96">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="48">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="32">
       <c r="A10" s="16"/>
       <c r="B10" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="48">
       <c r="A12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="48">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32">
       <c r="A15" s="17"/>
       <c r="B15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16">
       <c r="A16" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="D16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="32">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="32">
       <c r="A19" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="32">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="32">
       <c r="A21" s="16"/>
       <c r="B21" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="32">
       <c r="A22" s="16"/>
       <c r="B22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="F22" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32">
       <c r="A23" s="17"/>
       <c r="B23" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="E23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>91</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="32">
       <c r="A24" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="48">
       <c r="A25" s="16"/>
       <c r="B25" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="32">
       <c r="A26" s="16"/>
       <c r="B26" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>103</v>
-      </c>
       <c r="E26" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="32">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>106</v>
-      </c>
       <c r="F27" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="32">
       <c r="A28" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="F28" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="32">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="F29" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16">
       <c r="A30" s="16"/>
       <c r="B30" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="48">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="F31" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16">
       <c r="A32" s="16"/>
       <c r="B32" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>126</v>
-      </c>
       <c r="F32" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="F33" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32">
       <c r="A34" s="17"/>
       <c r="B34" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="F34" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16">
       <c r="A35" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="32">
       <c r="A36" s="16"/>
       <c r="B36" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="F36" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="32">
       <c r="A37" s="16"/>
       <c r="B37" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="E37" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="F37" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="32">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D38" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>149</v>
-      </c>
       <c r="F38" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="32">
       <c r="A39" s="17"/>
       <c r="B39" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="E39" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="F39" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18">
       <c r="A42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18">
       <c r="A43" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18">
       <c r="A44" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:6" ht="18">
       <c r="A45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18">
       <c r="A46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18">
       <c r="A47" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="36">
       <c r="A48" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="72">
       <c r="A49" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18">
       <c r="A50" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18">
       <c r="A51" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18">
       <c r="A52" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1962,44 +1962,44 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A28:A34"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
